--- a/biology/Botanique/Laminaire_à_long_stipe/Laminaire_à_long_stipe.xlsx
+++ b/biology/Botanique/Laminaire_à_long_stipe/Laminaire_à_long_stipe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laminaire_%C3%A0_long_stipe</t>
+          <t>Laminaire_à_long_stipe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laminaire à long stipe
 Saccharina longicruris, appelée Laminaire à long stipe au Canada, est une espèce d'algues brunes de la famille des Laminariaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Laminaire_%C3%A0_long_stipe</t>
+          <t>Laminaire_à_long_stipe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Laminaire à long stipe est une algue brune à la texture de cuir. Elle forme un long ruban de un à douze mètres ayant des bords plus ou moins ondulés[1]. Le stipe entre le thalle et le crampon est très long, entre 1,5 et 2 m[2]. Elle pousse très vite; jusqu'à 3 cm par jour[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Laminaire à long stipe est une algue brune à la texture de cuir. Elle forme un long ruban de un à douze mètres ayant des bords plus ou moins ondulés. Le stipe entre le thalle et le crampon est très long, entre 1,5 et 2 m. Elle pousse très vite; jusqu'à 3 cm par jour.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Laminaire_%C3%A0_long_stipe</t>
+          <t>Laminaire_à_long_stipe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du côté américain de l'océan Atlantique, on la retrouve de l'Arctique jusqu'à Long Island[1]. Elle pousse aussi dans les zones économiques exclusives de l'Irlande et du Royaume-Uni[3].
-La Laminaire à long stipe pousse sur des surfaces dures (rochers, bois épaves) sur lesquelles elle se cramponne. On peut les trouver à faible profondeur (quelques mètres tout au plus) ou à marée basse sur les rochers semi-immergés[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du côté américain de l'océan Atlantique, on la retrouve de l'Arctique jusqu'à Long Island. Elle pousse aussi dans les zones économiques exclusives de l'Irlande et du Royaume-Uni.
+La Laminaire à long stipe pousse sur des surfaces dures (rochers, bois épaves) sur lesquelles elle se cramponne. On peut les trouver à faible profondeur (quelques mètres tout au plus) ou à marée basse sur les rochers semi-immergés. 
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Laminaire_%C3%A0_long_stipe</t>
+          <t>Laminaire_à_long_stipe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'Île aux Coudres, une croyance veut que les laminaires s’échouent sur les plages seulement au cours des hivers où le foin pour le bétail vient à manquer[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'Île aux Coudres, une croyance veut que les laminaires s’échouent sur les plages seulement au cours des hivers où le foin pour le bétail vient à manquer.
 </t>
         </is>
       </c>
